--- a/Tabla_Grafico_Cascada.xlsx
+++ b/Tabla_Grafico_Cascada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\TABLERO_STREAMLIT_DASHBOARD\DASHBOARD_Morbilidad_DESPLIEGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A288BD-040F-43C8-8B62-733212EB6F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A5446-1B7F-44BC-9D9D-21198029C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D616C1C-8E0C-4C20-B986-F38AF72ECD6B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>departamento</t>
   </si>
@@ -42,43 +42,52 @@
     <t>Arauca</t>
   </si>
   <si>
-    <t>Accid. Transp</t>
-  </si>
-  <si>
-    <t>Agres.</t>
-  </si>
-  <si>
-    <t>Consum.Sust.Psicoact.</t>
-  </si>
-  <si>
-    <t>Esquizofrenia</t>
-  </si>
-  <si>
-    <t>Lesiones Autoinf.</t>
-  </si>
-  <si>
-    <t>Retr. Mental</t>
-  </si>
-  <si>
-    <t>Síndr. Alterac. Fisiológ.Fact.Físicos</t>
-  </si>
-  <si>
-    <t>Trast. Afect Estad.Animo</t>
-  </si>
-  <si>
-    <t>Trast.Person.Comp.Adultos</t>
-  </si>
-  <si>
-    <t>Trast. Desarrollo Psico.</t>
-  </si>
-  <si>
-    <t>Trast.Habitu. Niñez-Adolesc</t>
-  </si>
-  <si>
-    <t>Trast.Ment.Orgán. Sintomát.  </t>
-  </si>
-  <si>
-    <t>Trast. Neurót. Estrés y Somatomorf.</t>
+    <t>Accidentes de transporte</t>
+  </si>
+  <si>
+    <t>Agresiones</t>
+  </si>
+  <si>
+    <t>Consumo de sustancias psicoactivas</t>
+  </si>
+  <si>
+    <t>Esquizofrenia Trastornos esquizotípicos y delirantes</t>
+  </si>
+  <si>
+    <t>Lesiones autoinfligidas</t>
+  </si>
+  <si>
+    <t>Retraso mental</t>
+  </si>
+  <si>
+    <t>Síndromes del comportamiento  asociados a alteraciones fisiológicas y factores físicos</t>
+  </si>
+  <si>
+    <t>Trastornos (afectivos) del estado de ánimo</t>
+  </si>
+  <si>
+    <t>Trastornos de la personalidad y comportamiento en adultos</t>
+  </si>
+  <si>
+    <t>Trastornos del desarrollo psicológico</t>
+  </si>
+  <si>
+    <t>Trastornos habituales en la niñez y en la adolescencia</t>
+  </si>
+  <si>
+    <t>Trastornos mentales orgánicos, incluidos los sintomáticos,  </t>
+  </si>
+  <si>
+    <t>Trastornos neuróticos, trastornos relacionados con el estrés y somatomorfos</t>
+  </si>
+  <si>
+    <t>Casanare</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Vichada</t>
   </si>
 </sst>
 </file>
@@ -137,12 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA71AA1C-A64D-41FD-848F-61DC877ABFE7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,9 +500,9 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>4950</v>
-      </c>
-      <c r="D2" s="4">
+        <v>4949</v>
+      </c>
+      <c r="D2">
         <v>1250</v>
       </c>
     </row>
@@ -506,8 +516,8 @@
       <c r="C3" s="4">
         <v>1728</v>
       </c>
-      <c r="D3" s="4">
-        <v>736</v>
+      <c r="D3">
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -520,8 +530,8 @@
       <c r="C4" s="4">
         <v>14562</v>
       </c>
-      <c r="D4" s="4">
-        <v>2261</v>
+      <c r="D4">
+        <v>2260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -534,8 +544,8 @@
       <c r="C5" s="4">
         <v>19704</v>
       </c>
-      <c r="D5" s="4">
-        <v>2663</v>
+      <c r="D5">
+        <v>2662</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -546,10 +556,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>2166</v>
-      </c>
-      <c r="D6" s="4">
-        <v>903</v>
+        <v>2165</v>
+      </c>
+      <c r="D6">
+        <v>902</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -562,7 +572,7 @@
       <c r="C7" s="4">
         <v>11340</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>2901</v>
       </c>
     </row>
@@ -574,9 +584,9 @@
         <v>11</v>
       </c>
       <c r="C8" s="4">
-        <v>10758</v>
-      </c>
-      <c r="D8" s="4">
+        <v>10757</v>
+      </c>
+      <c r="D8">
         <v>2704</v>
       </c>
     </row>
@@ -588,9 +598,9 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>56400</v>
-      </c>
-      <c r="D9" s="4">
+        <v>56399</v>
+      </c>
+      <c r="D9">
         <v>4655</v>
       </c>
     </row>
@@ -604,8 +614,8 @@
       <c r="C10" s="4">
         <v>5682</v>
       </c>
-      <c r="D10" s="4">
-        <v>1700</v>
+      <c r="D10">
+        <v>1699</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,7 +628,7 @@
       <c r="C11" s="4">
         <v>46452</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>3917</v>
       </c>
     </row>
@@ -632,7 +642,7 @@
       <c r="C12" s="4">
         <v>37392</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>4828</v>
       </c>
     </row>
@@ -644,24 +654,570 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>15546</v>
-      </c>
-      <c r="D13" s="4">
+        <v>15545</v>
+      </c>
+      <c r="D13">
         <v>2864</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>83706</v>
-      </c>
-      <c r="D14" s="4">
+        <v>83705</v>
+      </c>
+      <c r="D14">
         <v>5098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>15876</v>
+      </c>
+      <c r="D15">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3935</v>
+      </c>
+      <c r="D16">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9066</v>
+      </c>
+      <c r="D17">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17933</v>
+      </c>
+      <c r="D18">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1331</v>
+      </c>
+      <c r="D19">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>17615</v>
+      </c>
+      <c r="D20">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4">
+        <v>10884</v>
+      </c>
+      <c r="D21">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4">
+        <v>83562</v>
+      </c>
+      <c r="D22">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4037</v>
+      </c>
+      <c r="D23">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4">
+        <v>60720</v>
+      </c>
+      <c r="D24">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43038</v>
+      </c>
+      <c r="D25">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4">
+        <v>15528</v>
+      </c>
+      <c r="D26">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4">
+        <v>102468</v>
+      </c>
+      <c r="D27">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>26913</v>
+      </c>
+      <c r="D28">
+        <v>14128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8294</v>
+      </c>
+      <c r="D29">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>53432</v>
+      </c>
+      <c r="D30">
+        <v>18185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4">
+        <v>89356</v>
+      </c>
+      <c r="D31">
+        <v>19261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4726</v>
+      </c>
+      <c r="D32">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4">
+        <v>72902</v>
+      </c>
+      <c r="D33">
+        <v>25127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4">
+        <v>40615</v>
+      </c>
+      <c r="D34">
+        <v>20383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>223155</v>
+      </c>
+      <c r="D35">
+        <v>26748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>19710</v>
+      </c>
+      <c r="D36">
+        <v>17064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4">
+        <v>154268</v>
+      </c>
+      <c r="D37">
+        <v>28610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4">
+        <v>103423</v>
+      </c>
+      <c r="D38">
+        <v>31342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4">
+        <v>79959</v>
+      </c>
+      <c r="D39">
+        <v>20904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>351299</v>
+      </c>
+      <c r="D40">
+        <v>35892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4">
+        <v>270</v>
+      </c>
+      <c r="D41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>113</v>
+      </c>
+      <c r="D42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1038</v>
+      </c>
+      <c r="D43">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2106</v>
+      </c>
+      <c r="D44">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4">
+        <v>119</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1392</v>
+      </c>
+      <c r="D46">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1188</v>
+      </c>
+      <c r="D47">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4764</v>
+      </c>
+      <c r="D48">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4">
+        <v>971</v>
+      </c>
+      <c r="D49">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1727</v>
+      </c>
+      <c r="D50">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2801</v>
+      </c>
+      <c r="D51">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="4">
+        <v>869</v>
+      </c>
+      <c r="D52">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="4">
+        <v>10386</v>
+      </c>
+      <c r="D53">
+        <v>787</v>
       </c>
     </row>
   </sheetData>

--- a/Tabla_Grafico_Cascada.xlsx
+++ b/Tabla_Grafico_Cascada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\TABLERO_STREAMLIT_DASHBOARD\DASHBOARD_Morbilidad_DESPLIEGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A5446-1B7F-44BC-9D9D-21198029C5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEC6B6-6838-4C58-A273-220CBBC6F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D616C1C-8E0C-4C20-B986-F38AF72ECD6B}"/>
   </bookViews>
@@ -42,43 +42,37 @@
     <t>Arauca</t>
   </si>
   <si>
-    <t>Accidentes de transporte</t>
-  </si>
-  <si>
-    <t>Agresiones</t>
-  </si>
-  <si>
-    <t>Consumo de sustancias psicoactivas</t>
-  </si>
-  <si>
-    <t>Esquizofrenia Trastornos esquizotípicos y delirantes</t>
-  </si>
-  <si>
-    <t>Lesiones autoinfligidas</t>
-  </si>
-  <si>
-    <t>Retraso mental</t>
-  </si>
-  <si>
-    <t>Síndromes del comportamiento  asociados a alteraciones fisiológicas y factores físicos</t>
-  </si>
-  <si>
-    <t>Trastornos (afectivos) del estado de ánimo</t>
-  </si>
-  <si>
-    <t>Trastornos de la personalidad y comportamiento en adultos</t>
-  </si>
-  <si>
-    <t>Trastornos del desarrollo psicológico</t>
-  </si>
-  <si>
-    <t>Trastornos habituales en la niñez y en la adolescencia</t>
-  </si>
-  <si>
-    <t>Trastornos mentales orgánicos, incluidos los sintomáticos,  </t>
-  </si>
-  <si>
-    <t>Trastornos neuróticos, trastornos relacionados con el estrés y somatomorfos</t>
+    <t>Accid. Transp</t>
+  </si>
+  <si>
+    <t>Agres.</t>
+  </si>
+  <si>
+    <t>Consum.Sust.Psicoact.</t>
+  </si>
+  <si>
+    <t>Esquizofrenia</t>
+  </si>
+  <si>
+    <t>Lesiones Autoinf.</t>
+  </si>
+  <si>
+    <t>Retr. Mental</t>
+  </si>
+  <si>
+    <t>Síndr. Alterac. Fisiológ.Fact.Físicos</t>
+  </si>
+  <si>
+    <t>Trast. Afect Estad.Animo</t>
+  </si>
+  <si>
+    <t>Trast.Person.Comp.Adultos</t>
+  </si>
+  <si>
+    <t>Trast. Desarrollo Psico.</t>
+  </si>
+  <si>
+    <t>Trast.Ment.Orgán. Sintomát.  </t>
   </si>
   <si>
     <t>Casanare</t>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Vichada</t>
+  </si>
+  <si>
+    <t>Trast.Habit. Niñez-Adolesc</t>
+  </si>
+  <si>
+    <t>Trast. Neurót. Estrés y Somatom.</t>
   </si>
 </sst>
 </file>
@@ -470,11 +470,12 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D53"/>
+      <selection activeCell="B2" sqref="B2:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>37392</v>
@@ -651,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
         <v>15545</v>
@@ -665,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
         <v>83705</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -690,7 +691,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -704,7 +705,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -718,7 +719,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -732,7 +733,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -746,7 +747,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -760,7 +761,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -774,7 +775,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -788,7 +789,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -802,7 +803,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -816,10 +817,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <v>43038</v>
@@ -830,10 +831,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>15528</v>
@@ -844,10 +845,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4">
         <v>102468</v>
@@ -858,7 +859,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -872,7 +873,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -886,7 +887,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -900,7 +901,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -914,7 +915,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -928,7 +929,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -942,7 +943,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -956,7 +957,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -970,7 +971,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -984,7 +985,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -998,10 +999,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
         <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
       </c>
       <c r="C38" s="4">
         <v>103423</v>
@@ -1012,10 +1013,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4">
         <v>79959</v>
@@ -1026,10 +1027,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40" s="4">
         <v>351299</v>
@@ -1040,7 +1041,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1054,7 +1055,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1068,7 +1069,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1082,7 +1083,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1096,7 +1097,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
@@ -1110,7 +1111,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1124,7 +1125,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -1138,7 +1139,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1152,7 +1153,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -1166,7 +1167,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -1180,10 +1181,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C51" s="4">
         <v>2801</v>
@@ -1194,10 +1195,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="4">
         <v>869</v>
@@ -1208,10 +1209,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
         <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
       </c>
       <c r="C53" s="4">
         <v>10386</v>

--- a/Tabla_Grafico_Cascada.xlsx
+++ b/Tabla_Grafico_Cascada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Downloads\TABLERO_STREAMLIT_DASHBOARD\DASHBOARD_Morbilidad_DESPLIEGUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEEC6B6-6838-4C58-A273-220CBBC6F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87164BD3-DBEA-4CDC-AA44-B50772DB916E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D616C1C-8E0C-4C20-B986-F38AF72ECD6B}"/>
   </bookViews>
